--- a/frontend/src/client/assets/templates/question_import.xlsx
+++ b/frontend/src/client/assets/templates/question_import.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="19440" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>sc</t>
   </si>
@@ -54,35 +54,44 @@
     <t>ext</t>
   </si>
   <si>
-    <t>LIT</t>
-  </si>
-  <si>
     <t>Sample open end</t>
   </si>
   <si>
     <t>Tel me about you</t>
   </si>
   <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>Six</t>
-  </si>
-  <si>
     <t>correct</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>Samle multi choice</t>
+  </si>
+  <si>
+    <t>4*5=?</t>
+  </si>
+  <si>
+    <t>5*4</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +120,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -197,6 +214,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,6 +249,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,16 +425,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -435,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -451,8 +473,8 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -461,39 +483,80 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="F4" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -502,24 +565,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
